--- a/plan/learn/2016/12.xlsx
+++ b/plan/learn/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>简历更新</t>
   </si>
@@ -41,33 +41,27 @@
   <si>
     <t>memcache，redis</t>
   </si>
+  <si>
+    <t>数据库结构迭代更新</t>
+  </si>
+  <si>
+    <t>自动化版本编译，发布</t>
+  </si>
+  <si>
+    <t>禅道</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +86,97 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -99,6 +184,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,99 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,13 +223,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,85 +361,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,79 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,21 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,15 +441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -474,6 +452,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,15 +497,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -512,153 +505,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:B9"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1061,6 +1063,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/learn/2016/12.xlsx
+++ b/plan/learn/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>简历更新</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>禅道</t>
   </si>
+  <si>
+    <t>测试自己编译版本测试</t>
+  </si>
 </sst>
 </file>
 
@@ -57,9 +60,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,6 +70,37 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,14 +113,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -95,82 +159,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +173,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -195,6 +191,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,61 +226,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,121 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,11 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,17 +450,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,16 +537,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,115 +555,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,15 +1015,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:B12"/>
+  <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -1078,6 +1081,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/plan/learn/2016/12.xlsx
+++ b/plan/learn/2016/12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>简历更新</t>
   </si>
@@ -52,6 +52,23 @@
   </si>
   <si>
     <t>测试自己编译版本测试</t>
+  </si>
+  <si>
+    <t>自己架设一套linux框架，
+用epoll
+异步数据库处理框架
+缓存框架(memcache,redis)
+异常处理
+日志框架</t>
+  </si>
+  <si>
+    <t>lua虚拟机，在c++层设置lua
+全局变量，lua层可以直接
+访问该全局变量。lua里的
+设置全局变量，等于在lua
+虚拟机里设置了全局变量，
+下次访问lua文件时，也可以
+直接访问该变量</t>
   </si>
 </sst>
 </file>
@@ -59,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,6 +87,110 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,29 +203,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -112,54 +210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,50 +233,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,31 +243,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,67 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,79 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,21 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,11 +452,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,15 +534,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,151 +542,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:B13"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1084,6 +1104,16 @@
     <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="94.5" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="135" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
